--- a/backend/example_bird.xlsx
+++ b/backend/example_bird.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26626"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\BirdWatching\backend\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D1DE301-76C9-48E2-87B1-8A16088B5671}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2380" windowWidth="16460" windowHeight="11700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t>order_en</t>
   </si>
@@ -61,6 +55,9 @@
     <t>habitat</t>
   </si>
   <si>
+    <t>behavior</t>
+  </si>
+  <si>
     <t>bird_info</t>
   </si>
   <si>
@@ -100,19 +97,21 @@
     <t>生境</t>
   </si>
   <si>
-    <t>behavior</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>习性</t>
+  </si>
+  <si>
+    <t>其他</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -120,15 +119,8 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -174,25 +166,17 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -230,7 +214,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -264,7 +248,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -299,10 +282,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -475,16 +457,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -525,61 +505,60 @@
         <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J2" t="s">
         <v>9</v>
       </c>
       <c r="K2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M2" t="s">
-        <v>25</v>
-      </c>
-      <c r="N2">
-        <v>1</v>
-      </c>
-      <c r="O2">
-        <v>1</v>
+        <v>26</v>
+      </c>
+      <c r="N2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>